--- a/biology/Botanique/Campanula_scheuchzeri/Campanula_scheuchzeri.xlsx
+++ b/biology/Botanique/Campanula_scheuchzeri/Campanula_scheuchzeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campanula scheuchzeri Vill. 1779, la Campanule de Scheuchzer, est une espèce de plantes herbacées de montagnes appartenant à la famille des Campanulacées.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante haute de 10 à 80 cm dont les minces tiges florifères portent des feuilles étroites, sans pétiole. Les fleurs bleu violacé en forme de clochettes sont grandes, souvent solitaires.
-La floraison a lieu de juin à août (voire septembre). On la rencontre de 600 à 2650 m d'altitude[1].
+La floraison a lieu de juin à août (voire septembre). On la rencontre de 600 à 2650 m d'altitude.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Régions montagneuses : pâturages, pelouses, rocailles.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste de sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (2 nov. 2010)[2], Campanula scheuchzeri comporte de nombreuses formes.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (2 nov. 2010), Campanula scheuchzeri comporte de nombreuses formes.
 </t>
         </is>
       </c>
